--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="19820" windowHeight="7900"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -56,7 +56,7 @@
     <t>bool</t>
   </si>
   <si>
-    <t>uint64</t>
+    <t>string</t>
   </si>
   <si>
     <t>common</t>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>持续时间</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Control</t>
   </si>
 </sst>
 </file>
@@ -763,7 +769,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1016,10 +1022,10 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C10" sqref="C10:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1117,11 +1123,11 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1140,11 +1146,11 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1163,11 +1169,11 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1186,11 +1192,11 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1209,11 +1215,11 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -1232,11 +1238,11 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -1255,11 +1261,11 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -1278,11 +1284,11 @@
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -1301,11 +1307,11 @@
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -1324,11 +1330,11 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -1347,11 +1353,11 @@
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -1370,11 +1376,11 @@
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
       </c>
       <c r="E21">
         <v>100</v>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -41,6 +41,9 @@
     <t>immunetag</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
     <t>maxlayer</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
   </si>
   <si>
     <t>免疫tag</t>
+  </si>
+  <si>
+    <t>等级</t>
   </si>
   <si>
     <t>最大层数</t>
@@ -1019,15 +1025,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D21"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,65 +1055,77 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -1116,7 +1134,7 @@
     <row r="9" spans="2:2">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1124,22 +1142,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1147,22 +1168,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1170,22 +1194,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1193,22 +1220,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1216,22 +1246,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>100</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1239,22 +1272,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>100</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1262,22 +1298,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>100</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1285,22 +1324,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>100</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1308,22 +1350,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>100</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>10</v>
       </c>
@@ -1331,22 +1376,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>100</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>11</v>
       </c>
@@ -1354,22 +1402,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>100</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>12</v>
       </c>
@@ -1377,18 +1428,21 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>100</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>0</v>
       </c>
     </row>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -50,7 +50,10 @@
     <t>duration</t>
   </si>
   <si>
-    <t>forceInterrupt</t>
+    <t>forceinterrupt</t>
+  </si>
+  <si>
+    <t>interval</t>
   </si>
   <si>
     <t>uint32</t>
@@ -78,6 +81,9 @@
   </si>
   <si>
     <t>持续时间</t>
+  </si>
+  <si>
+    <t>间隔时间</t>
   </si>
   <si>
     <t>None</t>
@@ -1025,15 +1031,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1058,74 +1064,87 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -1134,7 +1153,7 @@
     <row r="9" spans="2:2">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1142,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1159,8 +1178,11 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1168,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1185,8 +1207,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1194,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1211,8 +1236,11 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1220,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1237,8 +1265,11 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1246,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -1263,8 +1294,11 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1272,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -1289,8 +1323,11 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1298,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -1315,8 +1352,11 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1324,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -1341,8 +1381,11 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1350,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -1367,8 +1410,11 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>10</v>
       </c>
@@ -1376,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -1393,8 +1439,11 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>11</v>
       </c>
@@ -1402,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -1419,8 +1468,11 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>12</v>
       </c>
@@ -1428,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1443,6 +1495,9 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
     </row>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>map</t>
   </si>
   <si>
     <t>common</t>
@@ -1031,15 +1034,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1050,25 +1053,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1082,70 +1091,87 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>17</v>
       </c>
-      <c r="H7"/>
       <c r="I7" t="s">
         <v>18</v>
       </c>
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1"/>
@@ -1153,7 +1179,7 @@
     <row r="9" spans="2:2">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1161,28 +1187,34 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1190,28 +1222,34 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1219,28 +1257,34 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1248,28 +1292,34 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1277,28 +1327,34 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14">
         <v>100</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>100</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1306,28 +1362,34 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15">
         <v>100</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>100</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1335,28 +1397,34 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16">
         <v>100</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>100</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1364,28 +1432,34 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17">
         <v>100</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>100</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1393,28 +1467,34 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18">
         <v>100</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>100</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>10</v>
       </c>
@@ -1422,28 +1502,34 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19">
         <v>100</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>100</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>11</v>
       </c>
@@ -1451,28 +1537,34 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20">
         <v>100</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>100</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
       <c r="I20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>12</v>
       </c>
@@ -1480,24 +1572,30 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21">
         <v>100</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>100</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>0</v>
       </c>
     </row>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -59,13 +59,10 @@
     <t>uint32</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>map</t>
+    <t>set</t>
   </si>
   <si>
     <t>common</t>
@@ -89,10 +86,25 @@
     <t>间隔时间</t>
   </si>
   <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Control</t>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Earth</t>
   </si>
 </sst>
 </file>
@@ -1034,15 +1046,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1062,115 +1074,142 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="3:3">
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6">
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>17</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7"/>
+      <c r="M7" t="s">
         <v>18</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -1179,7 +1218,7 @@
     <row r="9" spans="2:2">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1187,34 +1226,38 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
+      <c r="E10"/>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1225,31 +1268,35 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E11"/>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1257,34 +1304,38 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
+      <c r="E12"/>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1292,34 +1343,38 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E13"/>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13">
         <v>1</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1327,34 +1382,38 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
+      <c r="E14"/>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14">
         <v>100</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>100</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1362,34 +1421,38 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E15"/>
       <c r="F15" t="s">
         <v>21</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15">
         <v>100</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>100</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1397,34 +1460,38 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
+      <c r="E16"/>
       <c r="F16" t="s">
         <v>20</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16">
         <v>100</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>100</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1432,34 +1499,38 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E17"/>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17">
         <v>100</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>100</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1467,34 +1538,38 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
+      <c r="E18"/>
       <c r="F18" t="s">
         <v>20</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18">
         <v>100</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>100</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>10</v>
       </c>
@@ -1502,34 +1577,38 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E19"/>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19">
         <v>100</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>100</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>11</v>
       </c>
@@ -1537,34 +1616,38 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
+      <c r="E20"/>
       <c r="F20" t="s">
         <v>20</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20">
         <v>100</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>100</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>12</v>
       </c>
@@ -1572,30 +1655,34 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E21"/>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21">
         <v>100</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>100</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>0</v>
       </c>
     </row>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19820" windowHeight="7900"/>
+    <workbookView windowWidth="24500" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="2" r:id="rId1"/>
@@ -1046,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1185,445 +1185,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
-      <c r="B7" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F19" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G19" t="s">
         <v>14</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H19" t="s">
         <v>14</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I19" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J19" t="s">
         <v>16</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K19" t="s">
         <v>17</v>
       </c>
-      <c r="L7"/>
-      <c r="M7" t="s">
+      <c r="L19"/>
+      <c r="M19" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14">
-        <v>100</v>
-      </c>
-      <c r="J14">
-        <v>100</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15">
-        <v>100</v>
-      </c>
-      <c r="J15">
-        <v>100</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16">
-        <v>100</v>
-      </c>
-      <c r="J16">
-        <v>100</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17">
-        <v>100</v>
-      </c>
-      <c r="J17">
-        <v>100</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18"/>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18">
-        <v>100</v>
-      </c>
-      <c r="J18">
-        <v>100</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19">
-        <v>100</v>
-      </c>
-      <c r="J19">
-        <v>100</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
         <v>22</v>
@@ -1632,10 +1239,10 @@
         <v>20</v>
       </c>
       <c r="I20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1649,20 +1256,20 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G21" t="s">
         <v>22</v>
@@ -1671,18 +1278,408 @@
         <v>20</v>
       </c>
       <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24">
         <v>100</v>
       </c>
-      <c r="J21">
+      <c r="J24">
         <v>100</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29">
+        <v>100</v>
+      </c>
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30">
+        <v>100</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="J31">
+        <v>100</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>0</v>
       </c>
     </row>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24500" windowHeight="10140"/>
+    <workbookView windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>interval</t>
+  </si>
+  <si>
+    <t>intervaleffect</t>
   </si>
   <si>
     <t>uint32</t>
@@ -1046,15 +1049,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1094,128 +1097,152 @@
       <c r="M1" t="s">
         <v>8</v>
       </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
+      <c r="O2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="3:6">
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:15">
       <c r="B19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L19"/>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1223,20 +1250,20 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1253,8 +1280,14 @@
       <c r="M20">
         <v>0</v>
       </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1262,20 +1295,20 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
         <v>23</v>
       </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1292,8 +1325,14 @@
       <c r="M21">
         <v>0</v>
       </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1301,20 +1340,20 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1331,8 +1370,14 @@
       <c r="M22">
         <v>0</v>
       </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1340,20 +1385,20 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1370,8 +1415,14 @@
       <c r="M23">
         <v>0</v>
       </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1379,20 +1430,20 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I24">
         <v>100</v>
@@ -1409,8 +1460,14 @@
       <c r="M24">
         <v>0</v>
       </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1418,20 +1475,20 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I25">
         <v>100</v>
@@ -1448,8 +1505,14 @@
       <c r="M25">
         <v>0</v>
       </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1457,20 +1520,20 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I26">
         <v>100</v>
@@ -1487,8 +1550,14 @@
       <c r="M26">
         <v>0</v>
       </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1496,20 +1565,20 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I27">
         <v>100</v>
@@ -1526,8 +1595,14 @@
       <c r="M27">
         <v>0</v>
       </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1535,20 +1610,20 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I28">
         <v>100</v>
@@ -1565,8 +1640,14 @@
       <c r="M28">
         <v>0</v>
       </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1574,20 +1655,20 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I29">
         <v>100</v>
@@ -1604,8 +1685,14 @@
       <c r="M29">
         <v>0</v>
       </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>11</v>
       </c>
@@ -1613,20 +1700,20 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I30">
         <v>100</v>
@@ -1643,8 +1730,14 @@
       <c r="M30">
         <v>0</v>
       </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1652,20 +1745,20 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I31">
         <v>100</v>
@@ -1680,6 +1773,12 @@
         <v>0</v>
       </c>
       <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
         <v>0</v>
       </c>
     </row>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17200"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,9 @@
     <t>interval</t>
   </si>
   <si>
+    <t>intervalcount</t>
+  </si>
+  <si>
     <t>intervaleffect</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>double</t>
   </si>
   <si>
     <t>set</t>
@@ -1049,15 +1055,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1101,148 +1107,160 @@
         <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>10</v>
-      </c>
       <c r="O2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="3:6">
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O4" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:16">
       <c r="B19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L19"/>
       <c r="M19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O19" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="P19" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1250,20 +1268,20 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1278,16 +1296,19 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1295,20 +1316,20 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1331,8 +1352,11 @@
       <c r="O21">
         <v>0</v>
       </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1340,20 +1364,20 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1376,8 +1400,11 @@
       <c r="O22">
         <v>0</v>
       </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1385,20 +1412,20 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1421,8 +1448,11 @@
       <c r="O23">
         <v>0</v>
       </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1430,20 +1460,20 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I24">
         <v>100</v>
@@ -1466,8 +1496,11 @@
       <c r="O24">
         <v>0</v>
       </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1475,20 +1508,20 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I25">
         <v>100</v>
@@ -1511,8 +1544,11 @@
       <c r="O25">
         <v>0</v>
       </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1520,20 +1556,20 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I26">
         <v>100</v>
@@ -1556,8 +1592,11 @@
       <c r="O26">
         <v>0</v>
       </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1565,20 +1604,20 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I27">
         <v>100</v>
@@ -1601,8 +1640,11 @@
       <c r="O27">
         <v>0</v>
       </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1610,20 +1652,20 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I28">
         <v>100</v>
@@ -1646,8 +1688,11 @@
       <c r="O28">
         <v>0</v>
       </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1655,20 +1700,20 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I29">
         <v>100</v>
@@ -1691,8 +1736,11 @@
       <c r="O29">
         <v>0</v>
       </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>11</v>
       </c>
@@ -1700,20 +1748,20 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I30">
         <v>100</v>
@@ -1736,8 +1784,11 @@
       <c r="O30">
         <v>0</v>
       </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1745,20 +1796,20 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I31">
         <v>100</v>
@@ -1779,6 +1830,9 @@
         <v>0</v>
       </c>
       <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
         <v>0</v>
       </c>
     </row>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1145,7 +1145,7 @@
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -27,11 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>designer</t>
+  </si>
+  <si>
     <t>nocaster</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
     <t>immunetag</t>
   </si>
   <si>
+    <t>removetag</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
     <t>强制没有施法者</t>
   </si>
   <si>
+    <t>Slow:减速</t>
+  </si>
+  <si>
     <t>免疫tag</t>
   </si>
   <si>
@@ -114,6 +123,18 @@
   </si>
   <si>
     <t>Earth</t>
+  </si>
+  <si>
+    <t>移速降低</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>移除移速降低</t>
+  </si>
+  <si>
+    <t>免疫所有移速降低效果</t>
   </si>
 </sst>
 </file>
@@ -805,7 +826,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1055,15 +1076,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1074,19 +1095,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -1095,744 +1116,1019 @@
         <v>5</v>
       </c>
       <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
-        <v>10</v>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
       </c>
       <c r="N2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P2" t="s">
         <v>13</v>
       </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="3:6">
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
+    <row r="3" spans="4:10">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1"/>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:16">
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
+    <row r="19" spans="3:20">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K19" t="s">
         <v>20</v>
       </c>
-      <c r="L19"/>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
       <c r="M19" t="s">
         <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O19" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="P19"/>
+      <c r="Q19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20"/>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20"/>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
       <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
         <v>10</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21"/>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21">
         <v>1</v>
       </c>
-      <c r="J21">
+      <c r="N21">
         <v>1</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22"/>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22">
         <v>1</v>
       </c>
-      <c r="J22">
+      <c r="N22">
         <v>1</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23"/>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23"/>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23">
         <v>1</v>
       </c>
-      <c r="J23">
+      <c r="N23">
         <v>1</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>5</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24"/>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24"/>
       <c r="G24" t="s">
         <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24">
         <v>100</v>
       </c>
-      <c r="J24">
+      <c r="N24">
         <v>100</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>6</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25"/>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25"/>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25">
         <v>100</v>
       </c>
-      <c r="J25">
+      <c r="N25">
         <v>100</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>7</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26"/>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26"/>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26">
         <v>100</v>
       </c>
-      <c r="J26">
+      <c r="N26">
         <v>100</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>8</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
+      <c r="C27">
+        <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27"/>
-      <c r="F27" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27"/>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27">
         <v>100</v>
       </c>
-      <c r="J27">
+      <c r="N27">
         <v>100</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>9</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28"/>
-      <c r="F28" t="s">
-        <v>23</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28"/>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28">
         <v>100</v>
       </c>
-      <c r="J28">
+      <c r="N28">
         <v>100</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>10</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
+      <c r="C29">
+        <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29"/>
-      <c r="F29" t="s">
-        <v>23</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29"/>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29">
         <v>100</v>
       </c>
-      <c r="J29">
+      <c r="N29">
         <v>100</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>11</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
+      <c r="C30">
+        <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30" t="s">
-        <v>23</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30"/>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30">
         <v>100</v>
       </c>
-      <c r="J30">
+      <c r="N30">
         <v>100</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>12</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>28</v>
+      <c r="C31">
+        <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31"/>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31">
         <v>100</v>
       </c>
-      <c r="J31">
+      <c r="N31">
         <v>100</v>
       </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:20">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32">
+        <v>100</v>
+      </c>
+      <c r="N32">
+        <v>100</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:20">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33">
+        <v>100</v>
+      </c>
+      <c r="N33">
+        <v>100</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:20">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34">
+        <v>100</v>
+      </c>
+      <c r="N34">
+        <v>100</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
         <v>0</v>
       </c>
     </row>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2114,7 +2114,7 @@
         <v>100</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P34">
         <v>0</v>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -38,6 +38,9 @@
     <t>nocaster</t>
   </si>
   <si>
+    <t>bufftype</t>
+  </si>
+  <si>
     <t>tag</t>
   </si>
   <si>
@@ -84,6 +87,40 @@
   </si>
   <si>
     <t>强制没有施法者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#pragma once
+enum eBuffType {
+    // 控制类 Buff
+    kBuffTypeMovementSlow = 0,           // 移动速度减速
+    kBuffTypeAttackSpeedSlow = 1,        // 攻击速度减速
+    kBuffTypeCastSpeedSlow = 2,          // 技能施放速度减速
+    kBuffTypeGlobalSlow = 3,             // 全局减速（移动、攻击、施法等都减速）
+    // 属性增强类 Buff
+    kBuffTypeIncreaseAttack = 10,        // 增加攻击力
+    kBuffTypeIncreaseDefense = 11,       // 增加防御力
+    kBuffTypeIncreaseHealth = 12,        // 增加最大生命值
+    kBuffTypeIncreaseSpeed = 13,         // 提高移动速度
+    kBuffTypeIncreaseCriticalChance = 14,// 提高暴击率
+    // 防御类 Buff
+    kBuffTypeDamageReduction = 20,       // 减少受到的伤害
+    kBuffTypeShield = 21,                // 获得护盾（吸收伤害）
+    // 特殊类 Buff
+    kBuffTypeStun = 30,                  // 晕眩，无法行动
+    kBuffTypeSilence = 31,               // 沉默，无法施放技能
+    kBuffTypeInvincibility = 32,         // 无敌，免疫所有伤害
+    kBuffTypeStealth = 33,               // 隐身，无法被敌人发现
+    kBuffTypeImmunity = 34,              // 免疫buff
+    kBuffTypeImmunityToMovementSlow = 35,// 免疫移动速度降低效果
+    // 持续恢复类 Buff
+    kBuffTypeHealthRegeneration = 40,    // 持续恢复生命值
+    kBuffTypeManaRegeneration = 41,      // 持续恢复法力值
+    // Debuff 类
+    kBuffTypePoison = 50,                // 中毒，持续扣除生命值
+    kBuffTypeBurn = 51,                  // 燃烧，持续受到火焰伤害
+    kBuffTypeFreeze = 52,                // 冰冻，无法行动
+};
+</t>
   </si>
   <si>
     <t>Slow:减速</t>
@@ -1076,15 +1113,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1098,28 +1135,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1" t="s">
         <v>6</v>
@@ -1143,289 +1180,304 @@
         <v>12</v>
       </c>
       <c r="T1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="U1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" t="s">
-        <v>15</v>
-      </c>
       <c r="T2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="4:10">
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
+    <row r="3" spans="5:11">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T4" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="U4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="3:20">
+    <row r="19" ht="409.5" spans="3:21">
       <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="G19" t="s">
+      <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19"/>
-      <c r="Q19" t="s">
         <v>24</v>
       </c>
+      <c r="P19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19"/>
       <c r="R19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T19" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="U19" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>25</v>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20"/>
-      <c r="G20" t="s">
         <v>27</v>
       </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20"/>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>1</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>10</v>
       </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
       <c r="T20">
         <v>0</v>
       </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:21">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>27</v>
+      <c r="D21">
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21"/>
-      <c r="G21" t="s">
         <v>29</v>
       </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21"/>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L21" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1442,47 +1494,50 @@
       <c r="T21">
         <v>0</v>
       </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>29</v>
+      <c r="D22">
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22"/>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22"/>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J22" t="s">
         <v>28</v>
       </c>
       <c r="K22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1499,47 +1554,50 @@
       <c r="T22">
         <v>0</v>
       </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:21">
       <c r="A23">
         <v>4</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>30</v>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23"/>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23"/>
       <c r="H23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>26</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="M23" t="s">
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1556,47 +1614,50 @@
       <c r="T23">
         <v>0</v>
       </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:21">
       <c r="A24">
         <v>5</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>31</v>
+      <c r="D24">
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24"/>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24"/>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L24" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="M24" t="s">
+        <v>28</v>
       </c>
       <c r="N24">
         <v>100</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1613,47 +1674,50 @@
       <c r="T24">
         <v>0</v>
       </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:21">
       <c r="A25">
         <v>6</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>25</v>
+      <c r="D25">
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25"/>
-      <c r="G25" t="s">
         <v>27</v>
       </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25"/>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L25" t="s">
-        <v>26</v>
-      </c>
-      <c r="M25">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="M25" t="s">
+        <v>28</v>
       </c>
       <c r="N25">
         <v>100</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -1670,47 +1734,50 @@
       <c r="T25">
         <v>0</v>
       </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:21">
       <c r="A26">
         <v>7</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>27</v>
+      <c r="D26">
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26"/>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26"/>
       <c r="H26" t="s">
         <v>28</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K26" t="s">
         <v>28</v>
       </c>
       <c r="L26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M26">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="M26" t="s">
+        <v>28</v>
       </c>
       <c r="N26">
         <v>100</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -1727,47 +1794,50 @@
       <c r="T26">
         <v>0</v>
       </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:21">
       <c r="A27">
         <v>8</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>25</v>
+      <c r="D27">
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27"/>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27"/>
       <c r="H27" t="s">
         <v>28</v>
       </c>
       <c r="I27" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K27" t="s">
         <v>28</v>
       </c>
       <c r="L27" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="M27" t="s">
+        <v>28</v>
       </c>
       <c r="N27">
         <v>100</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -1784,47 +1854,50 @@
       <c r="T27">
         <v>0</v>
       </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:21">
       <c r="A28">
         <v>9</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>27</v>
+      <c r="D28">
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28"/>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28"/>
       <c r="H28" t="s">
         <v>28</v>
       </c>
       <c r="I28" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K28" t="s">
         <v>28</v>
       </c>
       <c r="L28" t="s">
-        <v>26</v>
-      </c>
-      <c r="M28">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="M28" t="s">
+        <v>28</v>
       </c>
       <c r="N28">
         <v>100</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -1841,47 +1914,50 @@
       <c r="T28">
         <v>0</v>
       </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:21">
       <c r="A29">
         <v>10</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>29</v>
+      <c r="D29">
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29"/>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29"/>
       <c r="H29" t="s">
         <v>28</v>
       </c>
       <c r="I29" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K29" t="s">
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>26</v>
-      </c>
-      <c r="M29">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="M29" t="s">
+        <v>28</v>
       </c>
       <c r="N29">
         <v>100</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -1898,47 +1974,50 @@
       <c r="T29">
         <v>0</v>
       </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:21">
       <c r="A30">
         <v>11</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>30</v>
+      <c r="D30">
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30"/>
       <c r="H30" t="s">
         <v>28</v>
       </c>
       <c r="I30" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K30" t="s">
         <v>28</v>
       </c>
       <c r="L30" t="s">
-        <v>26</v>
-      </c>
-      <c r="M30">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="M30" t="s">
+        <v>28</v>
       </c>
       <c r="N30">
         <v>100</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -1955,47 +2034,50 @@
       <c r="T30">
         <v>0</v>
       </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:21">
       <c r="A31">
         <v>12</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>31</v>
+      <c r="D31">
+        <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31"/>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31"/>
       <c r="H31" t="s">
         <v>28</v>
       </c>
       <c r="I31" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K31" t="s">
         <v>28</v>
       </c>
       <c r="L31" t="s">
-        <v>26</v>
-      </c>
-      <c r="M31">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="M31" t="s">
+        <v>28</v>
       </c>
       <c r="N31">
         <v>100</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2012,28 +2094,31 @@
       <c r="T31">
         <v>0</v>
       </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" customFormat="1" spans="1:20">
+    <row r="32" customFormat="1" spans="1:21">
       <c r="A32">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
-      <c r="M32">
-        <v>100</v>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
       </c>
       <c r="N32">
         <v>100</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2050,28 +2135,31 @@
       <c r="T32">
         <v>0</v>
       </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" customFormat="1" spans="1:20">
+    <row r="33" customFormat="1" spans="1:21">
       <c r="A33">
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="J33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M33">
-        <v>100</v>
+      <c r="D33">
+        <v>35</v>
+      </c>
+      <c r="K33" t="s">
+        <v>35</v>
       </c>
       <c r="N33">
         <v>100</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2088,37 +2176,40 @@
       <c r="T33">
         <v>0</v>
       </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" customFormat="1" spans="1:20">
+    <row r="34" customFormat="1" spans="1:21">
       <c r="A34">
         <v>15</v>
       </c>
       <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>34</v>
+      </c>
+      <c r="H34" t="s">
         <v>35</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
-      <c r="M34">
-        <v>100</v>
-      </c>
+      <c r="M34"/>
       <c r="N34">
         <v>100</v>
       </c>
       <c r="O34">
+        <v>100</v>
+      </c>
+      <c r="P34">
         <v>2</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
       <c r="Q34">
         <v>0</v>
       </c>
@@ -2129,6 +2220,9 @@
         <v>0</v>
       </c>
       <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
         <v>0</v>
       </c>
     </row>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -47,7 +47,7 @@
     <t>immunetag</t>
   </si>
   <si>
-    <t>removetag</t>
+    <t>dispeltag</t>
   </si>
   <si>
     <t>level</t>
@@ -71,6 +71,12 @@
     <t>intervaleffect</t>
   </si>
   <si>
+    <t>movement_speed_boost</t>
+  </si>
+  <si>
+    <t>movement_speed_reduction</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
@@ -84,6 +90,9 @@
   </si>
   <si>
     <t>common</t>
+  </si>
+  <si>
+    <t>multi</t>
   </si>
   <si>
     <t>强制没有施法者</t>
@@ -129,6 +138,9 @@
     <t>免疫tag</t>
   </si>
   <si>
+    <t>驱散tag</t>
+  </si>
+  <si>
     <t>等级</t>
   </si>
   <si>
@@ -141,6 +153,12 @@
     <t>间隔时间</t>
   </si>
   <si>
+    <t>移动速度加成</t>
+  </si>
+  <si>
+    <t>移速降低</t>
+  </si>
+  <si>
     <t>Metal</t>
   </si>
   <si>
@@ -162,10 +180,7 @@
     <t>Earth</t>
   </si>
   <si>
-    <t>移速降低</t>
-  </si>
-  <si>
-    <t>Slow</t>
+    <t>MovementSpeedReduction</t>
   </si>
   <si>
     <t>移除移速降低</t>
@@ -1113,15 +1128,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1185,200 +1200,229 @@
       <c r="U1" t="s">
         <v>13</v>
       </c>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" t="s">
-        <v>14</v>
-      </c>
       <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" t="s">
-        <v>14</v>
-      </c>
       <c r="T2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="V2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="5:11">
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U4" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="V4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" ht="409.5" spans="3:21">
+    <row r="19" ht="409.5" spans="3:23">
       <c r="C19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="S19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U19" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="V19" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1389,29 +1433,29 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G20"/>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M20" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1437,8 +1481,14 @@
       <c r="U20">
         <v>0</v>
       </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1449,29 +1499,29 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G21"/>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1497,8 +1547,14 @@
       <c r="U21">
         <v>0</v>
       </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1509,29 +1565,29 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G22"/>
       <c r="H22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J22" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M22" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1557,8 +1613,14 @@
       <c r="U22">
         <v>0</v>
       </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:23">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1569,29 +1631,29 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G23"/>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L23" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1617,8 +1679,14 @@
       <c r="U23">
         <v>0</v>
       </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1629,29 +1697,29 @@
         <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G24"/>
       <c r="H24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I24" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J24" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L24" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M24" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>100</v>
@@ -1677,8 +1745,14 @@
       <c r="U24">
         <v>0</v>
       </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1689,29 +1763,29 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G25"/>
       <c r="H25" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I25" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J25" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L25" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M25" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>100</v>
@@ -1737,8 +1811,14 @@
       <c r="U25">
         <v>0</v>
       </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1749,29 +1829,29 @@
         <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G26"/>
       <c r="H26" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J26" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K26" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M26" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>100</v>
@@ -1797,8 +1877,14 @@
       <c r="U26">
         <v>0</v>
       </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:23">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1809,29 +1895,29 @@
         <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I27" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J27" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K27" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L27" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M27" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>100</v>
@@ -1857,8 +1943,14 @@
       <c r="U27">
         <v>0</v>
       </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1869,29 +1961,29 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G28"/>
       <c r="H28" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J28" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K28" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L28" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M28" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>100</v>
@@ -1917,8 +2009,14 @@
       <c r="U28">
         <v>0</v>
       </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1929,29 +2027,29 @@
         <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G29"/>
       <c r="H29" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I29" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J29" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K29" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L29" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M29" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>100</v>
@@ -1977,8 +2075,14 @@
       <c r="U29">
         <v>0</v>
       </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>11</v>
       </c>
@@ -1989,29 +2093,29 @@
         <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I30" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J30" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L30" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M30" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>100</v>
@@ -2037,8 +2141,14 @@
       <c r="U30">
         <v>0</v>
       </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>12</v>
       </c>
@@ -2049,29 +2159,29 @@
         <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I31" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J31" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K31" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L31" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M31" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N31">
         <v>100</v>
@@ -2097,13 +2207,19 @@
       <c r="U31">
         <v>0</v>
       </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" customFormat="1" spans="1:21">
+    <row r="32" customFormat="1" spans="1:23">
       <c r="A32">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2112,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>100</v>
@@ -2138,13 +2254,19 @@
       <c r="U32">
         <v>0</v>
       </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>20</v>
+      </c>
     </row>
-    <row r="33" customFormat="1" spans="1:21">
+    <row r="33" customFormat="1" spans="1:23">
       <c r="A33">
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2153,7 +2275,7 @@
         <v>35</v>
       </c>
       <c r="K33" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N33">
         <v>100</v>
@@ -2179,13 +2301,19 @@
       <c r="U33">
         <v>0</v>
       </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" customFormat="1" spans="1:21">
+    <row r="34" customFormat="1" spans="1:23">
       <c r="A34">
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2194,13 +2322,8 @@
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
+        <v>40</v>
+      </c>
       <c r="N34">
         <v>100</v>
       </c>
@@ -2223,6 +2346,64 @@
         <v>0</v>
       </c>
       <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:23">
+      <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35">
+        <v>100</v>
+      </c>
+      <c r="O35">
+        <v>100</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>20</v>
+      </c>
+      <c r="W35">
         <v>0</v>
       </c>
     </row>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,9 @@
     <t>maxlayer</t>
   </si>
   <si>
+    <t>infiniteduration</t>
+  </si>
+  <si>
     <t>duration</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
     <t>movement_speed_reduction</t>
   </si>
   <si>
+    <t>healthregeneration</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
@@ -93,6 +99,9 @@
   </si>
   <si>
     <t>multi</t>
+  </si>
+  <si>
+    <t>level,health</t>
   </si>
   <si>
     <t>强制没有施法者</t>
@@ -101,7 +110,7 @@
     <t xml:space="preserve">#pragma once
 enum eBuffType {
     // 控制类 Buff
-    kBuffTypeMovementSlow = 0,           // 移动速度减速
+    kBuffTypeMovementSpeedReduction = 0,           // 移动速度减速
     kBuffTypeAttackSpeedSlow = 1,        // 攻击速度减速
     kBuffTypeCastSpeedSlow = 2,          // 技能施放速度减速
     kBuffTypeGlobalSlow = 3,             // 全局减速（移动、攻击、施法等都减速）
@@ -109,7 +118,7 @@
     kBuffTypeIncreaseAttack = 10,        // 增加攻击力
     kBuffTypeIncreaseDefense = 11,       // 增加防御力
     kBuffTypeIncreaseHealth = 12,        // 增加最大生命值
-    kBuffTypeIncreaseSpeed = 13,         // 提高移动速度
+    kBuffTypeMovementSpeedBoost = 13,         // 提高移动速度
     kBuffTypeIncreaseCriticalChance = 14,// 提高暴击率
     // 防御类 Buff
     kBuffTypeDamageReduction = 20,       // 减少受到的伤害
@@ -120,10 +129,11 @@
     kBuffTypeInvincibility = 32,         // 无敌，免疫所有伤害
     kBuffTypeStealth = 33,               // 隐身，无法被敌人发现
     kBuffTypeImmunity = 34,              // 免疫buff
-    kBuffTypeImmunityToMovementSlow = 35,// 免疫移动速度降低效果
+    kBuffTypeDispel = 35,                // 驱散，移除buff或debuff
     // 持续恢复类 Buff
-    kBuffTypeHealthRegeneration = 40,    // 持续恢复生命值
-    kBuffTypeManaRegeneration = 41,      // 持续恢复法力值
+     kBuffTypeHealthRegeneration = 40,                // 持续恢复生命值
+     kBuffTypeManaRegeneration = 41,                  // 持续恢复法力值
+     kBuffTypeHealthRegenerationBasedOnLostHealth = 42, // 根据已损失生命值的每秒回复
     // Debuff 类
     kBuffTypePoison = 50,                // 中毒，持续扣除生命值
     kBuffTypeBurn = 51,                  // 燃烧，持续受到火焰伤害
@@ -147,6 +157,9 @@
     <t>最大层数</t>
   </si>
   <si>
+    <t>无限时长</t>
+  </si>
+  <si>
     <t>持续时间</t>
   </si>
   <si>
@@ -159,6 +172,9 @@
     <t>移速降低</t>
   </si>
   <si>
+    <t>持续恢复公式</t>
+  </si>
+  <si>
     <t>Metal</t>
   </si>
   <si>
@@ -187,6 +203,15 @@
   </si>
   <si>
     <t>免疫所有移速降低效果</t>
+  </si>
+  <si>
+    <t>每秒回复自身1.3%已损失生命值（随等级成长）</t>
+  </si>
+  <si>
+    <t>HealthRegenerationBasedOnLostHealth</t>
+  </si>
+  <si>
+    <t>0.013*level*health</t>
   </si>
 </sst>
 </file>
@@ -1128,15 +1153,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1198,7 +1223,7 @@
         <v>13</v>
       </c>
       <c r="U1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V1" t="s">
         <v>14</v>
@@ -1206,223 +1231,257 @@
       <c r="W1" t="s">
         <v>15</v>
       </c>
+      <c r="X1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s">
         <v>18</v>
       </c>
       <c r="Q2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
       </c>
       <c r="S2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T2" t="s">
         <v>18</v>
       </c>
       <c r="U2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="V2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="X2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="5:11">
       <c r="E3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="V4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="W4" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="X4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="25:25">
+      <c r="Y7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="25:25">
+      <c r="Y8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" ht="409.5" spans="3:23">
+    <row r="19" ht="409.5" spans="3:25">
       <c r="C19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19"/>
-      <c r="R19" t="s">
-        <v>30</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19"/>
       <c r="S19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="U19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="W19" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="X19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1433,29 +1492,29 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G20"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1470,14 +1529,14 @@
         <v>0</v>
       </c>
       <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>1</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>10</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
       <c r="U20">
         <v>0</v>
       </c>
@@ -1487,8 +1546,14 @@
       <c r="W20">
         <v>0</v>
       </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1499,29 +1564,29 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G21"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K21" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1553,8 +1618,14 @@
       <c r="W21">
         <v>0</v>
       </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1565,29 +1636,29 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G22"/>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K22" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L22" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1619,8 +1690,14 @@
       <c r="W22">
         <v>0</v>
       </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1631,29 +1708,29 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G23"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1685,8 +1762,14 @@
       <c r="W23">
         <v>0</v>
       </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1697,29 +1780,29 @@
         <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G24"/>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K24" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L24" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>100</v>
@@ -1751,8 +1834,14 @@
       <c r="W24">
         <v>0</v>
       </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1763,29 +1852,29 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G25"/>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K25" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L25" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>100</v>
@@ -1817,8 +1906,14 @@
       <c r="W25">
         <v>0</v>
       </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1829,29 +1924,29 @@
         <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G26"/>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K26" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L26" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M26" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>100</v>
@@ -1883,8 +1978,14 @@
       <c r="W26">
         <v>0</v>
       </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1895,29 +1996,29 @@
         <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L27" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>100</v>
@@ -1949,8 +2050,14 @@
       <c r="W27">
         <v>0</v>
       </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1961,29 +2068,29 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G28"/>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L28" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>100</v>
@@ -2015,8 +2122,14 @@
       <c r="W28">
         <v>0</v>
       </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -2027,29 +2140,29 @@
         <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G29"/>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K29" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M29" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>100</v>
@@ -2081,8 +2194,14 @@
       <c r="W29">
         <v>0</v>
       </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:25">
       <c r="A30">
         <v>11</v>
       </c>
@@ -2093,29 +2212,29 @@
         <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>100</v>
@@ -2147,8 +2266,14 @@
       <c r="W30">
         <v>0</v>
       </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:25">
       <c r="A31">
         <v>12</v>
       </c>
@@ -2159,29 +2284,29 @@
         <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K31" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M31" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N31">
         <v>100</v>
@@ -2213,13 +2338,19 @@
       <c r="W31">
         <v>0</v>
       </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" customFormat="1" spans="1:23">
+    <row r="32" customFormat="1" spans="1:25">
       <c r="A32">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2228,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>100</v>
@@ -2258,15 +2389,21 @@
         <v>0</v>
       </c>
       <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
         <v>20</v>
       </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" customFormat="1" spans="1:23">
+    <row r="33" customFormat="1" spans="1:25">
       <c r="A33">
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2275,7 +2412,7 @@
         <v>35</v>
       </c>
       <c r="K33" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N33">
         <v>100</v>
@@ -2307,13 +2444,19 @@
       <c r="W33">
         <v>0</v>
       </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" customFormat="1" spans="1:23">
+    <row r="34" customFormat="1" spans="1:25">
       <c r="A34">
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2322,7 +2465,7 @@
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N34">
         <v>100</v>
@@ -2331,11 +2474,11 @@
         <v>100</v>
       </c>
       <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>2</v>
       </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
       <c r="R34">
         <v>0</v>
       </c>
@@ -2354,13 +2497,19 @@
       <c r="W34">
         <v>0</v>
       </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" customFormat="1" spans="1:23">
+    <row r="35" customFormat="1" spans="1:25">
       <c r="A35">
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2369,13 +2518,8 @@
         <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
+        <v>45</v>
+      </c>
       <c r="N35">
         <v>100</v>
       </c>
@@ -2383,11 +2527,11 @@
         <v>100</v>
       </c>
       <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>2</v>
       </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
       <c r="R35">
         <v>0</v>
       </c>
@@ -2401,10 +2545,69 @@
         <v>0</v>
       </c>
       <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
         <v>20</v>
       </c>
-      <c r="W35">
-        <v>0</v>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:25">
+      <c r="A36">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+      <c r="N36">
+        <v>100</v>
+      </c>
+      <c r="O36">
+        <v>100</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>20</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>0.013*level*health</t>
+  </si>
+  <si>
+    <t>若在过去5秒内，没有受到伤害或者被敌方英雄技能命中</t>
+  </si>
+  <si>
+    <t>NoDamageOrSkillHitInLastSeconds</t>
   </si>
 </sst>
 </file>
@@ -1153,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2610,6 +2616,59 @@
         <v>50</v>
       </c>
     </row>
+    <row r="37" customFormat="1" spans="1:25">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>43</v>
+      </c>
+      <c r="E37" t="s">
+        <v>52</v>
+      </c>
+      <c r="N37">
+        <v>100</v>
+      </c>
+      <c r="O37">
+        <v>100</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>5</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>20</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>healthregeneration</t>
+  </si>
+  <si>
+    <t>subbuff</t>
+  </si>
+  <si>
+    <t>nodamageorskillhitinlastseconds</t>
   </si>
   <si>
     <t>uint32</t>
@@ -173,6 +179,12 @@
   </si>
   <si>
     <t>持续恢复公式</t>
+  </si>
+  <si>
+    <t>子buff</t>
+  </si>
+  <si>
+    <t>若在过去s能命中</t>
   </si>
   <si>
     <t>Metal</t>
@@ -1159,15 +1171,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Y37" sqref="Y37"/>
+      <selection activeCell="AB37" sqref="AB37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1243,251 +1255,287 @@
       <c r="Y1" t="s">
         <v>17</v>
       </c>
+      <c r="Z1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
         <v>20</v>
       </c>
-      <c r="R2" t="s">
-        <v>18</v>
-      </c>
       <c r="S2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" t="s">
         <v>20</v>
       </c>
-      <c r="T2" t="s">
-        <v>18</v>
-      </c>
       <c r="U2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AA2" t="s">
         <v>20</v>
       </c>
-      <c r="W2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>19</v>
+      <c r="AB2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="5:11">
       <c r="E3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="25:25">
       <c r="Y7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="25:25">
       <c r="Y8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" ht="409.5" spans="3:25">
+    <row r="19" ht="409.5" spans="3:28">
       <c r="C19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R19"/>
       <c r="S19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1498,29 +1546,29 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G20"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1558,8 +1606,17 @@
       <c r="Y20">
         <v>0</v>
       </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1570,29 +1627,29 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G21"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L21" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1630,8 +1687,17 @@
       <c r="Y21">
         <v>0</v>
       </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1642,29 +1708,29 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G22"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1702,8 +1768,17 @@
       <c r="Y22">
         <v>0</v>
       </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1714,29 +1789,29 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G23"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1774,8 +1849,17 @@
       <c r="Y23">
         <v>0</v>
       </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1786,29 +1870,29 @@
         <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G24"/>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>100</v>
@@ -1846,8 +1930,17 @@
       <c r="Y24">
         <v>0</v>
       </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1858,29 +1951,29 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G25"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N25">
         <v>100</v>
@@ -1918,8 +2011,17 @@
       <c r="Y25">
         <v>0</v>
       </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1930,29 +2032,29 @@
         <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G26"/>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L26" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N26">
         <v>100</v>
@@ -1990,8 +2092,17 @@
       <c r="Y26">
         <v>0</v>
       </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>8</v>
       </c>
@@ -2002,29 +2113,29 @@
         <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N27">
         <v>100</v>
@@ -2062,8 +2173,17 @@
       <c r="Y27">
         <v>0</v>
       </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>9</v>
       </c>
@@ -2074,29 +2194,29 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G28"/>
       <c r="H28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L28" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>100</v>
@@ -2134,8 +2254,17 @@
       <c r="Y28">
         <v>0</v>
       </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>10</v>
       </c>
@@ -2146,29 +2275,29 @@
         <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G29"/>
       <c r="H29" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K29" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L29" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M29" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N29">
         <v>100</v>
@@ -2206,8 +2335,17 @@
       <c r="Y29">
         <v>0</v>
       </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>11</v>
       </c>
@@ -2218,29 +2356,29 @@
         <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K30" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M30" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N30">
         <v>100</v>
@@ -2278,8 +2416,17 @@
       <c r="Y30">
         <v>0</v>
       </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>12</v>
       </c>
@@ -2290,29 +2437,29 @@
         <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L31" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N31">
         <v>100</v>
@@ -2350,13 +2497,22 @@
       <c r="Y31">
         <v>0</v>
       </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" customFormat="1" spans="1:25">
+    <row r="32" customFormat="1" spans="1:28">
       <c r="A32">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2365,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N32">
         <v>100</v>
@@ -2403,13 +2559,22 @@
       <c r="Y32">
         <v>0</v>
       </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" customFormat="1" spans="1:25">
+    <row r="33" customFormat="1" spans="1:28">
       <c r="A33">
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2418,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="K33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N33">
         <v>100</v>
@@ -2456,13 +2621,22 @@
       <c r="Y33">
         <v>0</v>
       </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" customFormat="1" spans="1:25">
+    <row r="34" customFormat="1" spans="1:28">
       <c r="A34">
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2471,7 +2645,7 @@
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N34">
         <v>100</v>
@@ -2509,13 +2683,22 @@
       <c r="Y34">
         <v>0</v>
       </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" customFormat="1" spans="1:25">
+    <row r="35" customFormat="1" spans="1:28">
       <c r="A35">
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2524,7 +2707,7 @@
         <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N35">
         <v>100</v>
@@ -2562,13 +2745,22 @@
       <c r="Y35">
         <v>0</v>
       </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" customFormat="1" spans="1:25">
+    <row r="36" customFormat="1" spans="1:28">
       <c r="A36">
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2577,7 +2769,7 @@
         <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N36">
         <v>100</v>
@@ -2613,15 +2805,24 @@
         <v>0</v>
       </c>
       <c r="Y36" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="1" spans="1:25">
+    <row r="37" customFormat="1" spans="1:28">
       <c r="A37">
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2630,7 +2831,7 @@
         <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N37">
         <v>100</v>
@@ -2667,6 +2868,15 @@
       </c>
       <c r="Y37">
         <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>15</v>
+      </c>
+      <c r="AA37">
+        <v>15</v>
+      </c>
+      <c r="AB37">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>nodamageorskillhitinlastseconds</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>bonusdamage</t>
   </si>
   <si>
     <t>uint32</t>
@@ -169,6 +175,9 @@
     <t>持续时间</t>
   </si>
   <si>
+    <t>强制打断</t>
+  </si>
+  <si>
     <t>间隔时间</t>
   </si>
   <si>
@@ -187,6 +196,12 @@
     <t>若在过去s能命中</t>
   </si>
   <si>
+    <t>生效次数</t>
+  </si>
+  <si>
+    <t>额外物理伤害</t>
+  </si>
+  <si>
     <t>Metal</t>
   </si>
   <si>
@@ -230,6 +245,12 @@
   </si>
   <si>
     <t>NoDamageOrSkillHitInLastSeconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 强化下一次普攻，以造成额外66物理伤害</t>
+  </si>
+  <si>
+    <t>NextBasicAttack</t>
   </si>
 </sst>
 </file>
@@ -1171,15 +1192,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AB37" sqref="AB37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1264,278 +1285,304 @@
       <c r="AB1" t="s">
         <v>19</v>
       </c>
+      <c r="AC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" t="s">
-        <v>20</v>
-      </c>
       <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
         <v>22</v>
       </c>
-      <c r="T2" t="s">
-        <v>20</v>
-      </c>
       <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="s">
         <v>22</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AA2" t="s">
         <v>22</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AB2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="5:11">
       <c r="E3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="W4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="X4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="25:25">
       <c r="Y7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="25:25">
       <c r="Y8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" ht="409.5" spans="3:28">
+    <row r="19" ht="409.5" spans="3:30">
       <c r="C19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q19" t="s">
-        <v>35</v>
-      </c>
-      <c r="R19"/>
+        <v>37</v>
+      </c>
+      <c r="R19" t="s">
+        <v>38</v>
+      </c>
       <c r="S19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="W19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Y19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB19" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:30">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1546,29 +1593,29 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G20"/>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1615,8 +1662,14 @@
       <c r="AB20">
         <v>0</v>
       </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1627,29 +1680,29 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G21"/>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L21" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M21" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1696,8 +1749,14 @@
       <c r="AB21">
         <v>0</v>
       </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1708,29 +1767,29 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G22"/>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L22" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M22" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1777,8 +1836,14 @@
       <c r="AB22">
         <v>0</v>
       </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1789,29 +1854,29 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G23"/>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L23" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1858,8 +1923,14 @@
       <c r="AB23">
         <v>0</v>
       </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1870,29 +1941,29 @@
         <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G24"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M24" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N24">
         <v>100</v>
@@ -1939,8 +2010,14 @@
       <c r="AB24">
         <v>0</v>
       </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1951,29 +2028,29 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G25"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L25" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M25" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N25">
         <v>100</v>
@@ -2020,8 +2097,14 @@
       <c r="AB25">
         <v>0</v>
       </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:30">
       <c r="A26">
         <v>7</v>
       </c>
@@ -2032,29 +2115,29 @@
         <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G26"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L26" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N26">
         <v>100</v>
@@ -2101,8 +2184,14 @@
       <c r="AB26">
         <v>0</v>
       </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:30">
       <c r="A27">
         <v>8</v>
       </c>
@@ -2113,29 +2202,29 @@
         <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L27" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N27">
         <v>100</v>
@@ -2182,8 +2271,14 @@
       <c r="AB27">
         <v>0</v>
       </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:30">
       <c r="A28">
         <v>9</v>
       </c>
@@ -2194,29 +2289,29 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G28"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L28" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N28">
         <v>100</v>
@@ -2263,8 +2358,14 @@
       <c r="AB28">
         <v>0</v>
       </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:30">
       <c r="A29">
         <v>10</v>
       </c>
@@ -2275,29 +2376,29 @@
         <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G29"/>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M29" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N29">
         <v>100</v>
@@ -2344,8 +2445,14 @@
       <c r="AB29">
         <v>0</v>
       </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:30">
       <c r="A30">
         <v>11</v>
       </c>
@@ -2356,29 +2463,29 @@
         <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K30" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M30" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N30">
         <v>100</v>
@@ -2425,8 +2532,14 @@
       <c r="AB30">
         <v>0</v>
       </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:30">
       <c r="A31">
         <v>12</v>
       </c>
@@ -2437,29 +2550,29 @@
         <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M31" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N31">
         <v>100</v>
@@ -2506,13 +2619,19 @@
       <c r="AB31">
         <v>0</v>
       </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" customFormat="1" spans="1:28">
+    <row r="32" customFormat="1" spans="1:30">
       <c r="A32">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2521,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N32">
         <v>100</v>
@@ -2568,13 +2687,19 @@
       <c r="AB32">
         <v>0</v>
       </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" customFormat="1" spans="1:28">
+    <row r="33" customFormat="1" spans="1:30">
       <c r="A33">
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2583,7 +2708,7 @@
         <v>35</v>
       </c>
       <c r="K33" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N33">
         <v>100</v>
@@ -2630,13 +2755,19 @@
       <c r="AB33">
         <v>0</v>
       </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" customFormat="1" spans="1:28">
+    <row r="34" customFormat="1" spans="1:30">
       <c r="A34">
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2645,7 +2776,7 @@
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N34">
         <v>100</v>
@@ -2692,13 +2823,19 @@
       <c r="AB34">
         <v>0</v>
       </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" customFormat="1" spans="1:28">
+    <row r="35" customFormat="1" spans="1:30">
       <c r="A35">
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2707,7 +2844,7 @@
         <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N35">
         <v>100</v>
@@ -2754,13 +2891,19 @@
       <c r="AB35">
         <v>0</v>
       </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" customFormat="1" spans="1:28">
+    <row r="36" customFormat="1" spans="1:30">
       <c r="A36">
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2769,7 +2912,7 @@
         <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N36">
         <v>100</v>
@@ -2805,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -2816,13 +2959,19 @@
       <c r="AB36">
         <v>0</v>
       </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" customFormat="1" spans="1:28">
+    <row r="37" customFormat="1" spans="1:30">
       <c r="A37">
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2831,7 +2980,7 @@
         <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N37">
         <v>100</v>
@@ -2877,6 +3026,133 @@
       </c>
       <c r="AB37">
         <v>5</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:30">
+      <c r="A38">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>43</v>
+      </c>
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
+      <c r="N38">
+        <v>100</v>
+      </c>
+      <c r="O38">
+        <v>100</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>5</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>20</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>15</v>
+      </c>
+      <c r="AA38">
+        <v>15</v>
+      </c>
+      <c r="AB38">
+        <v>5</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="14:30">
+      <c r="N39">
+        <v>100</v>
+      </c>
+      <c r="O39">
+        <v>100</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>20</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>15</v>
+      </c>
+      <c r="AA39">
+        <v>15</v>
+      </c>
+      <c r="AB39">
+        <v>5</v>
+      </c>
+      <c r="AC39">
+        <v>1</v>
+      </c>
+      <c r="AD39">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -123,33 +123,35 @@
 enum eBuffType {
     // 控制类 Buff
     kBuffTypeMovementSpeedReduction = 0,           // 移动速度减速
-    kBuffTypeAttackSpeedSlow = 1,        // 攻击速度减速
-    kBuffTypeCastSpeedSlow = 2,          // 技能施放速度减速
-    kBuffTypeGlobalSlow = 3,             // 全局减速（移动、攻击、施法等都减速）
+    kBuffTypeAttackSpeedSlow = 1,                  // 攻击速度减速
+    kBuffTypeCastSpeedSlow = 2,                    // 技能施放速度减速
+    kBuffTypeGlobalSlow = 3,                       // 全局减速（移动、攻击、施法等都减速）
     // 属性增强类 Buff
-    kBuffTypeIncreaseAttack = 10,        // 增加攻击力
-    kBuffTypeIncreaseDefense = 11,       // 增加防御力
-    kBuffTypeIncreaseHealth = 12,        // 增加最大生命值
-    kBuffTypeMovementSpeedBoost = 13,         // 提高移动速度
-    kBuffTypeIncreaseCriticalChance = 14,// 提高暴击率
+    kBuffTypeIncreaseAttack = 10,                  // 增加攻击力
+    kBuffTypeIncreaseDefense = 11,                 // 增加防御力
+    kBuffTypeIncreaseHealth = 12,                  // 增加最大生命值
+    kBuffTypeMovementSpeedBoost = 13,              // 提高移动速度
+    kBuffTypeIncreaseCriticalChance = 14,          // 提高暴击率
     // 防御类 Buff
-    kBuffTypeDamageReduction = 20,       // 减少受到的伤害
-    kBuffTypeShield = 21,                // 获得护盾（吸收伤害）
+    kBuffTypeDamageReduction = 20,                 // 减少受到的伤害
+    kBuffTypeShield = 21,                          // 获得护盾（吸收伤害）
     // 特殊类 Buff
-    kBuffTypeStun = 30,                  // 晕眩，无法行动
-    kBuffTypeSilence = 31,               // 沉默，无法施放技能
-    kBuffTypeInvincibility = 32,         // 无敌，免疫所有伤害
-    kBuffTypeStealth = 33,               // 隐身，无法被敌人发现
-    kBuffTypeImmunity = 34,              // 免疫buff
-    kBuffTypeDispel = 35,                // 驱散，移除buff或debuff
+    kBuffTypeStun = 30,                            // 晕眩，无法行动
+    kBuffTypeSilence = 31,                         // 沉默，无法施放技能
+    kBuffTypeInvincibility = 32,                   // 无敌，免疫所有伤害
+    kBuffTypeStealth = 33,                         // 隐身，无法被敌人发现
+    kBuffTypeImmunity = 34,                        // 免疫buff
+    kBuffTypeDispel = 35,                          // 驱散，移除buff或debuff
+    kBuffTypeNextBasicAttack = 36,                 // 下一次普攻，造成额外效果
     // 持续恢复类 Buff
-     kBuffTypeHealthRegeneration = 40,                // 持续恢复生命值
-     kBuffTypeManaRegeneration = 41,                  // 持续恢复法力值
-     kBuffTypeHealthRegenerationBasedOnLostHealth = 42, // 根据已损失生命值的每秒回复
+    kBuffTypeHealthRegeneration = 40,              // 持续恢复生命值
+    kBuffTypeManaRegeneration = 41,                // 持续恢复法力值
+    kBuffTypeHealthRegenerationBasedOnLostHealth = 42, // 根据已损失生命值的每秒回复
+    kBuffTypeNoDamageOrSkillHitInLastSeconds = 43, // 若在过去s秒内，没有受到伤害或被技能命中
     // Debuff 类
-    kBuffTypePoison = 50,                // 中毒，持续扣除生命值
-    kBuffTypeBurn = 51,                  // 燃烧，持续受到火焰伤害
-    kBuffTypeFreeze = 52,                // 冰冻，无法行动
+    kBuffTypePoison = 50,                          // 中毒，持续扣除生命值
+    kBuffTypeBurn = 51,                            // 燃烧，持续受到火焰伤害
+    kBuffTypeFreeze = 52,                          // 冰冻，无法行动
 };
 </t>
   </si>
@@ -1195,7 +1197,7 @@
   <dimension ref="A1:AD39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3045,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E38" t="s">
         <v>63</v>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -1196,8 +1196,8 @@
   <sheetPr/>
   <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1380,7 +1380,7 @@
         <v>22</v>
       </c>
       <c r="AD2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="5:11">
@@ -1491,8 +1491,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="25:25">
+    <row r="7" spans="25:30">
       <c r="Y7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD7" t="s">
         <v>24</v>
       </c>
     </row>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -249,10 +249,16 @@
     <t>NoDamageOrSkillHitInLastSeconds</t>
   </si>
   <si>
-    <t xml:space="preserve"> 强化下一次普攻，以造成额外66物理伤害</t>
+    <t>强化下一次普攻，以造成额外66物理伤害</t>
   </si>
   <si>
     <t>NextBasicAttack</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 沉默目标1.5秒</t>
+  </si>
+  <si>
+    <t>Silence</t>
   </si>
 </sst>
 </file>
@@ -1196,8 +1202,8 @@
   <sheetPr/>
   <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3024,10 +3030,10 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB37">
         <v>5</v>
@@ -3092,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB38">
         <v>5</v>
@@ -3104,10 +3110,25 @@
         <v>0</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="39" spans="14:30">
+    <row r="39" customFormat="1" spans="1:30">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>65</v>
+      </c>
       <c r="N39">
         <v>100</v>
       </c>
@@ -3124,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -3145,19 +3166,19 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AB39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD39">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>subbuff</t>
+  </si>
+  <si>
+    <t>targetsubbuff</t>
   </si>
   <si>
     <t>nodamageorskillhitinlastseconds</t>
@@ -1200,15 +1203,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD39"/>
+  <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AD39" sqref="AD39"/>
+      <selection activeCell="AC37" sqref="AC37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1294,306 +1297,330 @@
         <v>19</v>
       </c>
       <c r="AC1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>21</v>
       </c>
+      <c r="AF1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="O2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="AA2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="AB2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="AC2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="AD2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF2" t="s">
         <v>24</v>
-      </c>
-      <c r="R2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="5:11">
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD4" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="25:30">
+    <row r="7" spans="25:32">
       <c r="Y7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="25:25">
       <c r="Y8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" ht="409.5" spans="3:30">
+    <row r="19" ht="409.5" spans="3:32">
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB19" t="s">
         <v>44</v>
       </c>
       <c r="AC19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD19" t="s">
         <v>45</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>46</v>
       </c>
+      <c r="AF19" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:32">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1604,29 +1631,29 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G20"/>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" t="s">
         <v>50</v>
       </c>
-      <c r="J20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" t="s">
-        <v>49</v>
-      </c>
       <c r="L20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1679,8 +1706,14 @@
       <c r="AD20">
         <v>0</v>
       </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:32">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1691,29 +1724,29 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21"/>
       <c r="H21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" t="s">
         <v>51</v>
       </c>
-      <c r="I21" t="s">
-        <v>50</v>
-      </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" t="s">
         <v>51</v>
       </c>
-      <c r="L21" t="s">
-        <v>50</v>
-      </c>
       <c r="M21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1766,8 +1799,14 @@
       <c r="AD21">
         <v>0</v>
       </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:32">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1778,29 +1817,29 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G22"/>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1853,8 +1892,14 @@
       <c r="AD22">
         <v>0</v>
       </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:32">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1865,29 +1910,29 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23"/>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1940,8 +1985,14 @@
       <c r="AD23">
         <v>0</v>
       </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:32">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1952,29 +2003,29 @@
         <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G24"/>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" t="s">
         <v>48</v>
       </c>
-      <c r="K24" t="s">
-        <v>47</v>
-      </c>
       <c r="L24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N24">
         <v>100</v>
@@ -2027,8 +2078,14 @@
       <c r="AD24">
         <v>0</v>
       </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:32">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2039,29 +2096,29 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G25"/>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" t="s">
         <v>50</v>
       </c>
-      <c r="J25" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25" t="s">
-        <v>49</v>
-      </c>
       <c r="L25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N25">
         <v>100</v>
@@ -2114,8 +2171,14 @@
       <c r="AD25">
         <v>0</v>
       </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:32">
       <c r="A26">
         <v>7</v>
       </c>
@@ -2126,29 +2189,29 @@
         <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G26"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N26">
         <v>100</v>
@@ -2201,8 +2264,14 @@
       <c r="AD26">
         <v>0</v>
       </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:32">
       <c r="A27">
         <v>8</v>
       </c>
@@ -2213,29 +2282,29 @@
         <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N27">
         <v>100</v>
@@ -2288,8 +2357,14 @@
       <c r="AD27">
         <v>0</v>
       </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:32">
       <c r="A28">
         <v>9</v>
       </c>
@@ -2300,29 +2375,29 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N28">
         <v>100</v>
@@ -2375,8 +2450,14 @@
       <c r="AD28">
         <v>0</v>
       </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:32">
       <c r="A29">
         <v>10</v>
       </c>
@@ -2387,29 +2468,29 @@
         <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G29"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N29">
         <v>100</v>
@@ -2462,8 +2543,14 @@
       <c r="AD29">
         <v>0</v>
       </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:32">
       <c r="A30">
         <v>11</v>
       </c>
@@ -2474,29 +2561,29 @@
         <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N30">
         <v>100</v>
@@ -2549,8 +2636,14 @@
       <c r="AD30">
         <v>0</v>
       </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:32">
       <c r="A31">
         <v>12</v>
       </c>
@@ -2561,29 +2654,29 @@
         <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N31">
         <v>100</v>
@@ -2636,13 +2729,19 @@
       <c r="AD31">
         <v>0</v>
       </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" customFormat="1" spans="1:30">
+    <row r="32" customFormat="1" spans="1:32">
       <c r="A32">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2651,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N32">
         <v>100</v>
@@ -2704,13 +2803,19 @@
       <c r="AD32">
         <v>0</v>
       </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" customFormat="1" spans="1:30">
+    <row r="33" customFormat="1" spans="1:32">
       <c r="A33">
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2719,7 +2824,7 @@
         <v>35</v>
       </c>
       <c r="K33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N33">
         <v>100</v>
@@ -2772,13 +2877,19 @@
       <c r="AD33">
         <v>0</v>
       </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" customFormat="1" spans="1:30">
+    <row r="34" customFormat="1" spans="1:32">
       <c r="A34">
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2787,7 +2898,7 @@
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N34">
         <v>100</v>
@@ -2840,13 +2951,19 @@
       <c r="AD34">
         <v>0</v>
       </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" customFormat="1" spans="1:30">
+    <row r="35" customFormat="1" spans="1:32">
       <c r="A35">
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2855,7 +2972,7 @@
         <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N35">
         <v>100</v>
@@ -2908,13 +3025,19 @@
       <c r="AD35">
         <v>0</v>
       </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" customFormat="1" spans="1:30">
+    <row r="36" customFormat="1" spans="1:32">
       <c r="A36">
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2923,7 +3046,7 @@
         <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N36">
         <v>100</v>
@@ -2959,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -2976,13 +3099,19 @@
       <c r="AD36">
         <v>0</v>
       </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" customFormat="1" spans="1:30">
+    <row r="37" customFormat="1" spans="1:32">
       <c r="A37">
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2991,7 +3120,7 @@
         <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N37">
         <v>100</v>
@@ -3036,21 +3165,27 @@
         <v>19</v>
       </c>
       <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
         <v>5</v>
       </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="1" spans="1:30">
+    <row r="38" customFormat="1" spans="1:32">
       <c r="A38">
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -3059,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N38">
         <v>100</v>
@@ -3104,21 +3239,27 @@
         <v>0</v>
       </c>
       <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>20</v>
+      </c>
+      <c r="AD38">
         <v>5</v>
       </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
         <v>66</v>
       </c>
     </row>
-    <row r="39" customFormat="1" spans="1:30">
+    <row r="39" customFormat="1" spans="1:32">
       <c r="A39">
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3127,7 +3268,7 @@
         <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N39">
         <v>100</v>
@@ -3169,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -3178,6 +3319,12 @@
         <v>0</v>
       </c>
       <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
         <v>0</v>
       </c>
     </row>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AC37" sqref="AC37"/>
+      <selection activeCell="AA37" sqref="AA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB37">
         <v>0</v>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -953,7 +953,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AA37" sqref="AA37"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/bin/config/xlsx/Buff.xlsx
+++ b/bin/config/xlsx/Buff.xlsx
@@ -953,7 +953,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
